--- a/biology/Zoologie/Anabas_testudineus/Anabas_testudineus.xlsx
+++ b/biology/Zoologie/Anabas_testudineus/Anabas_testudineus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anabas testudineus, communément appelé la Perche grimpeuse ou, en Thaïlande, Pla mo (thaï : ปลาหมอ), est une espèce de poissons d'eau douce adaptée aux milieux aquatiques pauvres en oxygène de la famille des Anabantidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Anabas testudineus a été initialement décrite en 1792 par Marcus Élieser Bloch sous le protonyme d’Anthias testudineus.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La perche grimpeuse se rencontre en Inde et en Asie du Sud-Est, en particulier dans les fleuves Mékong et Chao Phraya.
 </t>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit dans les lacs et les mares d'eau stagnante pauvre en oxygène (comme le célèbre Poisson combattant qui vit dans l'eau des rizières).
 </t>
@@ -604,9 +622,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette perche mesure jusqu'à 25 cm de longueur et pèse jusqu'à 150 g[3]. Sa teinte générale est grise, olive ou brune. Ses nageoires dorsales et anales sont courtes avec de solides épines. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette perche mesure jusqu'à 25 cm de longueur et pèse jusqu'à 150 g. Sa teinte générale est grise, olive ou brune. Ses nageoires dorsales et anales sont courtes avec de solides épines. 
 Ce poisson d'eau douce respire l'air atmosphérique à la surface de l'eau. Il peut se hisser dans l'herbe et grimper sur la rive pour rejoindre un autre plan d'eau en utilisant ses épines rigides situées près de ses branchies et ses pectorales. Il peut survivre plusieurs jours hors de l'eau. Pendant la saison sèche, il arrive qu'il s'enfouisse dans la vase.
 </t>
         </is>
@@ -636,9 +656,11 @@
           <t>Relation avec l'Homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson est apprécié des aquariophiles. C'est un des premiers poissons importés pour l'aquariophilie : très résistant, il supporte les longues traversées en bateau et, déjà en 1870, des spécimens étaient exposés au zoo de Londres[4]. 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson est apprécié des aquariophiles. C'est un des premiers poissons importés pour l'aquariophilie : très résistant, il supporte les longues traversées en bateau et, déjà en 1870, des spécimens étaient exposés au zoo de Londres. 
 Sa chair est également appréciée en cuisine.
 			Perche grimpeuse dans un aquarium
 			Vendue au marché dans la province de Ratchaburi, Thaïlande.
@@ -673,9 +695,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, testudineus, « qui ressemble à une tortue », fait référence à la partie supérieure de son crâne qui est très dure et solide comme celle d'une tortue[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, testudineus, « qui ressemble à une tortue », fait référence à la partie supérieure de son crâne qui est très dure et solide comme celle d'une tortue.
 </t>
         </is>
       </c>
